--- a/xlsx/公民社会_intext.xlsx
+++ b/xlsx/公民社会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>公民社会</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>慈善團體</t>
+    <t>慈善团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E5%8F%83%E8%88%87</t>
   </si>
   <si>
-    <t>公民參與</t>
+    <t>公民参与</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>參與式民主</t>
+    <t>参与式民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
@@ -143,19 +143,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8%E6%94%BF%E6%B2%BB%E8%88%87%E8%A1%8C%E6%94%BF%E5%AD%B8%E7%B3%BB</t>
   </si>
   <si>
-    <t>香港中文大學政治與行政學系</t>
+    <t>香港中文大学政治与行政学系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9B%E5%BA%A7%E6%95%99%E6%8E%88</t>
   </si>
   <si>
-    <t>講座教授</t>
+    <t>讲座教授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%BB%8D%E5%85%89</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E7%BE%A9</t>
   </si>
   <si>
-    <t>歧義</t>
+    <t>歧义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%BB%84%E7%BB%87</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E5%8B%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>苦勞網</t>
+    <t>苦劳网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E8%8B%B1%E6%96%87</t>
@@ -233,19 +230,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -287,25 +284,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -365,13 +362,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -497,19 +494,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -569,19 +566,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -683,25 +680,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -773,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -803,13 +800,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -929,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -947,25 +944,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -995,25 +992,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -1073,21 +1070,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
@@ -1109,19 +1103,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1145,13 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2170,10 +2164,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2199,10 +2193,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2228,10 +2222,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2257,10 +2251,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2286,10 +2280,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2315,10 +2309,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2344,10 +2338,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2373,10 +2367,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2402,10 +2396,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2431,10 +2425,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2460,10 +2454,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2489,10 +2483,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
@@ -2518,10 +2512,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>28</v>
@@ -2547,10 +2541,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2576,10 +2570,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2605,10 +2599,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2634,10 +2628,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2663,10 +2657,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2692,10 +2686,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2721,10 +2715,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2750,10 +2744,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2779,10 +2773,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2808,10 +2802,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2837,10 +2831,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2866,10 +2860,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2895,10 +2889,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2924,10 +2918,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2953,10 +2947,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2982,10 +2976,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3011,10 +3005,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -3040,10 +3034,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3069,10 +3063,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3098,10 +3092,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3127,10 +3121,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3156,10 +3150,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3185,10 +3179,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3214,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3243,10 +3237,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3272,10 +3266,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3301,10 +3295,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3330,10 +3324,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3359,10 +3353,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3388,10 +3382,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3417,10 +3411,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3446,10 +3440,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3475,10 +3469,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3504,10 +3498,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3533,10 +3527,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3562,10 +3556,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3591,10 +3585,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3620,10 +3614,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3649,10 +3643,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3678,10 +3672,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3707,10 +3701,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3736,10 +3730,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3765,10 +3759,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3794,10 +3788,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3823,10 +3817,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3852,10 +3846,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3881,10 +3875,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3910,10 +3904,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3939,10 +3933,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3968,10 +3962,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3997,10 +3991,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4026,10 +4020,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4055,10 +4049,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4084,10 +4078,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4113,10 +4107,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4142,10 +4136,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4171,10 +4165,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4200,10 +4194,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4229,10 +4223,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4258,10 +4252,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4287,10 +4281,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4316,10 +4310,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4345,10 +4339,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4374,10 +4368,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4403,10 +4397,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4432,10 +4426,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4461,10 +4455,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4490,10 +4484,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4519,10 +4513,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4548,10 +4542,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4577,10 +4571,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -4606,10 +4600,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4635,10 +4629,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4664,10 +4658,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4693,10 +4687,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4722,10 +4716,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4751,10 +4745,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -4780,10 +4774,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4809,10 +4803,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4838,10 +4832,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4867,10 +4861,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4896,10 +4890,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4925,10 +4919,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4954,10 +4948,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4983,10 +4977,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5012,10 +5006,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5041,10 +5035,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5070,10 +5064,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5099,10 +5093,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5128,10 +5122,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5157,10 +5151,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5186,10 +5180,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5215,10 +5209,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5244,10 +5238,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5273,10 +5267,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5302,10 +5296,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5331,10 +5325,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5360,10 +5354,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5389,10 +5383,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5418,10 +5412,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5447,10 +5441,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5476,10 +5470,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5505,10 +5499,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5534,10 +5528,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5563,10 +5557,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5592,10 +5586,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5621,10 +5615,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5650,10 +5644,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5679,10 +5673,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5708,10 +5702,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>8</v>
@@ -5737,10 +5731,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5766,10 +5760,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5795,10 +5789,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5824,10 +5818,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5853,10 +5847,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5882,10 +5876,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5911,10 +5905,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5940,10 +5934,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5969,10 +5963,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5998,10 +5992,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6027,10 +6021,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6056,10 +6050,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6085,10 +6079,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6114,10 +6108,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6143,10 +6137,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6172,10 +6166,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6201,10 +6195,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6230,10 +6224,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6259,10 +6253,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
@@ -6288,10 +6282,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6317,10 +6311,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6346,10 +6340,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6375,10 +6369,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6404,10 +6398,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6433,10 +6427,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6462,10 +6456,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6491,10 +6485,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6520,10 +6514,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6549,10 +6543,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6578,10 +6572,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6607,10 +6601,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6636,10 +6630,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6665,10 +6659,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6694,10 +6688,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>10</v>
@@ -6723,10 +6717,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6752,10 +6746,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6781,10 +6775,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6810,10 +6804,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6839,10 +6833,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6868,10 +6862,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6897,10 +6891,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6926,10 +6920,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6955,10 +6949,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>260</v>
+      </c>
+      <c r="F187" t="s">
         <v>261</v>
-      </c>
-      <c r="F187" t="s">
-        <v>262</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6984,10 +6978,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7013,10 +7007,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7042,10 +7036,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7071,10 +7065,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7100,10 +7094,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7129,10 +7123,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7158,10 +7152,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7187,10 +7181,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7216,10 +7210,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7245,10 +7239,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
